--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/Amhara 2021_AHLE scenario parameters CATTLE.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/Amhara 2021_AHLE scenario parameters CATTLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtemesgen\OneDrive - CGIAR\Documents\GBADs\cattle\Regional estimtes _ Ethiopia\scenario parameter tables for regions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtemesgen\OneDrive - CGIAR\Documents\GBADs\cattle\Regional estimtes _ Ethiopia\Amhara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D0769C-B95A-4389-982C-D268089A89FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42CADD-DD10-4844-AE46-4BE846760687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
@@ -1255,7 +1255,13 @@
     <t>rpert(10000, 90, 450, 261)</t>
   </si>
   <si>
+    <t>CLM data soruces</t>
+  </si>
+  <si>
     <t>CSA 2021. Agricultural sample survey. Volume II. Report on livestock and livestock characteristics (private peasant holdings), Statistical Bulletin, 589. Central Statistical Agency (CSA), Addis Ababa. (2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smallholder dairy data soruces </t>
   </si>
   <si>
     <t>CSA, 2021b. Central statistical agency, Ethiopia  Ethiopia Socioeconomic Survey (ESS4) 2018-2019</t>
@@ -1475,12 +1481,6 @@
       <t/>
     </r>
   </si>
-  <si>
-    <t>CLM data source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smallholder dairy data source </t>
-  </si>
 </sst>
 </file>
 
@@ -1492,7 +1492,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,6 +1615,13 @@
       <name val="IBM Plex Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1723,7 +1730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1837,6 +1844,7 @@
     <xf numFmtId="3" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,10 +2167,10 @@
   <dimension ref="A1:HK159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="L54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2320,10 +2328,10 @@
         <v>210</v>
       </c>
       <c r="AG1" s="35" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
@@ -2635,10 +2643,10 @@
         <v>69010.687696218287</v>
       </c>
       <c r="AG5" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH5" s="25" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -2756,10 +2764,10 @@
         <v>69010.687696218287</v>
       </c>
       <c r="AG6" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH6" s="25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -2877,10 +2885,10 @@
         <v>137111.60175534937</v>
       </c>
       <c r="AG7" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH7" s="25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
@@ -2987,10 +2995,10 @@
         <v>39360.531665136536</v>
       </c>
       <c r="AG8" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH8" s="25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
@@ -3097,10 +3105,10 @@
         <v>243594.95952194097</v>
       </c>
       <c r="AG9" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH9" s="25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
@@ -3207,10 +3215,10 @@
         <v>39360.531665136499</v>
       </c>
       <c r="AG10" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH10" s="25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
@@ -3314,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="AG11" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH11" s="25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
@@ -3465,7 +3473,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AG13" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
@@ -3595,7 +3603,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AG14" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
@@ -3719,49 +3727,49 @@
         <v>82</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>219</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O17" s="47" t="s">
         <v>219</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R17" s="45">
         <v>0.87</v>
@@ -3809,7 +3817,7 @@
         <v>14.87</v>
       </c>
       <c r="AG17" s="41" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
@@ -4117,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
@@ -4238,7 +4246,7 @@
         <v>255</v>
       </c>
       <c r="AG22" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -4266,10 +4274,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>221</v>
@@ -4356,7 +4364,7 @@
         <v>252</v>
       </c>
       <c r="AG23" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -4474,7 +4482,7 @@
         <v>31</v>
       </c>
       <c r="AG24" s="42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -4615,7 +4623,7 @@
         <v>170</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D27" s="49" t="s">
         <v>170</v>
@@ -4624,40 +4632,40 @@
         <v>169</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R27" s="45">
         <v>0</v>
@@ -5354,49 +5362,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R36" s="45" t="s">
         <v>213</v>
@@ -5444,7 +5452,7 @@
         <v>213</v>
       </c>
       <c r="AG36" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
@@ -5462,49 +5470,49 @@
         <v>13</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q37" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R37" s="45">
         <v>0</v>
@@ -5552,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="AG37" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
@@ -5570,49 +5578,49 @@
         <v>13</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R38" s="52" t="s">
         <v>214</v>
@@ -5660,7 +5668,7 @@
         <v>214</v>
       </c>
       <c r="AG38" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
@@ -5678,49 +5686,49 @@
         <v>14</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R39" s="52" t="s">
         <v>215</v>
@@ -5768,7 +5776,7 @@
         <v>215</v>
       </c>
       <c r="AG39" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
@@ -5783,49 +5791,49 @@
         <v>143</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q40" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R40" s="45" t="s">
         <v>216</v>
@@ -5873,7 +5881,7 @@
         <v>216</v>
       </c>
       <c r="AG40" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
@@ -5996,7 +6004,7 @@
         <v>165</v>
       </c>
       <c r="J43" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K43" s="54">
         <v>0</v>
@@ -6005,19 +6013,19 @@
         <v>0</v>
       </c>
       <c r="M43" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N43" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O43" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P43" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q43" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R43" s="30" t="s">
         <v>217</v>
@@ -6065,7 +6073,7 @@
         <v>217</v>
       </c>
       <c r="AG43" s="57" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
@@ -6083,7 +6091,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D44" s="54">
         <v>0</v>
@@ -6092,25 +6100,25 @@
         <v>0</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G44" s="54">
         <v>0</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M44" s="54">
         <v>0</v>
@@ -6119,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="O44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q44" s="55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R44" s="30" t="s">
         <v>172</v>
@@ -6173,7 +6181,7 @@
         <v>172</v>
       </c>
       <c r="AG44" s="57" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
@@ -6191,7 +6199,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D45" s="54">
         <v>0</v>
@@ -6200,10 +6208,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H45" s="54">
         <v>0</v>
@@ -6212,28 +6220,28 @@
         <v>171</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M45" s="53" t="s">
         <v>171</v>
       </c>
       <c r="N45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O45" s="54">
         <v>0</v>
       </c>
       <c r="P45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q45" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R45" s="30" t="s">
         <v>218</v>
@@ -6281,7 +6289,7 @@
         <v>218</v>
       </c>
       <c r="AG45" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
@@ -6299,7 +6307,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D46" s="54">
         <v>0</v>
@@ -6308,40 +6316,40 @@
         <v>0</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H46" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="I46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="I46" s="65" t="s">
+        <v>297</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P46" s="54">
         <v>0</v>
       </c>
       <c r="Q46" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R46" s="30" t="s">
         <v>218</v>
@@ -6389,7 +6397,7 @@
         <v>218</v>
       </c>
       <c r="AG46" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
@@ -6404,7 +6412,7 @@
         <v>144</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D47" s="54">
         <v>0</v>
@@ -6413,37 +6421,37 @@
         <v>0</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I47" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="J47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="J47" s="65" t="s">
+        <v>297</v>
       </c>
       <c r="K47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P47" s="53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q47" s="54">
         <v>0</v>
@@ -6494,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AG47" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
@@ -6716,7 +6724,7 @@
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AG50" s="59" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AH50" s="15"/>
       <c r="AI50" s="15"/>
@@ -6854,7 +6862,7 @@
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AG51" s="59" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AH51" s="15"/>
       <c r="AI51" s="15"/>
@@ -6999,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="AG52" s="59" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
@@ -7567,49 +7575,49 @@
         <v>29</v>
       </c>
       <c r="C60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E60" s="62" t="s">
         <v>226</v>
       </c>
       <c r="F60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O60" s="62" t="s">
         <v>226</v>
       </c>
       <c r="P60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q60" s="61" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R60" s="45">
         <v>550</v>
@@ -7657,7 +7665,7 @@
         <v>550</v>
       </c>
       <c r="AG60" s="41" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
@@ -7675,49 +7683,49 @@
         <v>29</v>
       </c>
       <c r="C61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E61" s="62" t="s">
         <v>227</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P61" s="62" t="s">
         <v>227</v>
       </c>
       <c r="Q61" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="R61" s="45">
         <v>550</v>
@@ -7765,7 +7773,7 @@
         <v>550</v>
       </c>
       <c r="AG61" s="41" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
@@ -7780,46 +7788,46 @@
         <v>145</v>
       </c>
       <c r="C62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E62" s="62" t="s">
         <v>227</v>
       </c>
       <c r="F62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P62" s="61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q62" s="62" t="s">
         <v>227</v>
@@ -7870,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="AG62" s="41" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
@@ -8230,49 +8238,49 @@
         <v>34</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E69" s="47" t="s">
         <v>235</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K69" s="47" t="s">
         <v>235</v>
       </c>
       <c r="L69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q69" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R69" s="45" t="s">
         <v>174</v>
@@ -8320,7 +8328,7 @@
         <v>174</v>
       </c>
       <c r="AG69" s="42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
@@ -8340,49 +8348,49 @@
         <v>35</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E70" s="47" t="s">
         <v>236</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I70" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J70" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K70" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M70" s="47" t="s">
         <v>236</v>
       </c>
       <c r="N70" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O70" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P70" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q70" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R70" s="45" t="s">
         <v>175</v>
@@ -8430,7 +8438,7 @@
         <v>175</v>
       </c>
       <c r="AG70" s="42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
@@ -8450,49 +8458,49 @@
         <v>36</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E71" s="47" t="s">
         <v>232</v>
       </c>
       <c r="F71" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J71" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="K71" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L71" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="G71" s="33" t="s">
+      <c r="M71" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="N71" s="33" t="s">
         <v>289</v>
-      </c>
-      <c r="I71" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="J71" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="K71" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="L71" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="M71" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="N71" s="33" t="s">
-        <v>287</v>
       </c>
       <c r="O71" s="47" t="s">
         <v>232</v>
       </c>
       <c r="P71" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q71" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R71" s="45" t="s">
         <v>176</v>
@@ -8540,7 +8548,7 @@
         <v>176</v>
       </c>
       <c r="AG71" s="42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH71" s="5"/>
       <c r="AI71" s="5"/>
@@ -8573,31 +8581,31 @@
         <v>37</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E72" s="47" t="s">
         <v>233</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L72" s="47" t="s">
         <v>233</v>
@@ -8606,16 +8614,16 @@
         <v>173</v>
       </c>
       <c r="N72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q72" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R72" s="45" t="s">
         <v>177</v>
@@ -8663,7 +8671,7 @@
         <v>177</v>
       </c>
       <c r="AG72" s="42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
@@ -8683,49 +8691,49 @@
         <v>38</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>237</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L73" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M73" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N73" s="47" t="s">
         <v>237</v>
       </c>
       <c r="O73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q73" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R73" s="45" t="s">
         <v>178</v>
@@ -8773,7 +8781,7 @@
         <v>178</v>
       </c>
       <c r="AG73" s="42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
@@ -8793,49 +8801,49 @@
         <v>39</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E74" s="47" t="s">
         <v>238</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P74" s="47" t="s">
         <v>238</v>
       </c>
       <c r="Q74" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R74" s="45" t="s">
         <v>179</v>
@@ -8883,7 +8891,7 @@
         <v>179</v>
       </c>
       <c r="AG74" s="42" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
@@ -8900,46 +8908,46 @@
         <v>146</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E75" s="47" t="s">
         <v>238</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P75" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q75" s="47" t="s">
         <v>238</v>
@@ -9264,10 +9272,10 @@
         <v>1</v>
       </c>
       <c r="AG80" s="42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AH80" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
@@ -9385,10 +9393,10 @@
         <v>0.5</v>
       </c>
       <c r="AG81" s="42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AH81" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AI81" s="5"/>
       <c r="AJ81" s="5"/>
@@ -9589,7 +9597,7 @@
         <v>168</v>
       </c>
       <c r="AG84" s="42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AH84" s="5"/>
       <c r="AI84" s="5"/>
@@ -9794,7 +9802,7 @@
         <v>166</v>
       </c>
       <c r="AG87" s="27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AH87" s="5"/>
       <c r="AI87" s="5"/>
@@ -9902,7 +9910,7 @@
         <v>180</v>
       </c>
       <c r="AG88" s="27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AH88" s="5"/>
       <c r="AI88" s="5"/>
@@ -10010,7 +10018,7 @@
         <v>167</v>
       </c>
       <c r="AG89" s="27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
@@ -10200,7 +10208,7 @@
         <v>0.5</v>
       </c>
       <c r="AG92" s="42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
@@ -10394,7 +10402,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG95" s="63" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AH95" s="17"/>
       <c r="AI95" s="17"/>
@@ -10527,7 +10535,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG96" s="63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH96" s="17"/>
       <c r="AI96" s="17"/>
@@ -10660,7 +10668,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG97" s="63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AH97" s="17"/>
       <c r="AI97" s="17"/>
@@ -10793,7 +10801,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG98" s="63" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AH98" s="17"/>
       <c r="AI98" s="17"/>
@@ -10926,7 +10934,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG99" s="63" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AH99" s="17"/>
       <c r="AI99" s="17"/>
@@ -11059,7 +11067,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG100" s="63" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AH100" s="17"/>
       <c r="AI100" s="17"/>
@@ -11190,7 +11198,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG101" s="63" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AH101" s="17"/>
       <c r="AI101" s="17"/>
@@ -11461,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="AG105" s="42" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AH105" s="5"/>
       <c r="AI105" s="5"/>
@@ -11719,7 +11727,7 @@
         <v>0.5</v>
       </c>
       <c r="AG109" s="42" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AH109" s="5"/>
       <c r="AI109" s="5"/>
@@ -11936,7 +11944,7 @@
         <v>73</v>
       </c>
       <c r="AG112" s="42" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AH112" s="5"/>
       <c r="AI112" s="5"/>
@@ -12214,7 +12222,7 @@
         <v>74</v>
       </c>
       <c r="AG117" s="42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AH117" s="5"/>
       <c r="AI117" s="5"/>
@@ -12400,49 +12408,49 @@
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q122" s="33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="R122" s="45" t="s">
         <v>75</v>
@@ -12491,7 +12499,7 @@
       </c>
       <c r="AG122" s="42"/>
       <c r="AH122" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AI122" s="5"/>
       <c r="AJ122" s="5"/>
@@ -12638,49 +12646,49 @@
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q124" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="R124" s="45">
         <v>0</v>
@@ -12729,7 +12737,7 @@
       </c>
       <c r="AG124" s="42"/>
       <c r="AH124" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AI124" s="5"/>
       <c r="AJ124" s="5"/>
@@ -12747,49 +12755,49 @@
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E125" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="F125" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="E125" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>300</v>
-      </c>
       <c r="G125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q125" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="R125" s="45" t="s">
         <v>75</v>
@@ -12838,7 +12846,7 @@
       </c>
       <c r="AG125" s="42"/>
       <c r="AH125" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AI125" s="5"/>
       <c r="AJ125" s="5"/>
@@ -13068,7 +13076,7 @@
         <v>69</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D131" s="33" t="s">
         <v>152</v>
@@ -13113,49 +13121,49 @@
         <v>152</v>
       </c>
       <c r="R131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="T131" s="48">
         <v>0</v>
       </c>
       <c r="U131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="V131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Y131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Z131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AA131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AB131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AC131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AD131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AE131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF131" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG131" s="42"/>
       <c r="AO131" s="5"/>
@@ -13167,7 +13175,7 @@
       </c>
       <c r="B132" s="31"/>
       <c r="C132" s="33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D132" s="33" t="s">
         <v>152</v>
@@ -13212,49 +13220,49 @@
         <v>152</v>
       </c>
       <c r="R132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T132" s="48">
         <v>0</v>
       </c>
       <c r="U132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="V132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="W132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Y132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Z132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AA132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AB132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AC132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AD132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AE132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF132" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG132" s="42"/>
       <c r="AH132" s="5"/>
@@ -13267,10 +13275,10 @@
     </row>
     <row r="133" spans="1:219" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="24" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D133" s="33"/>
       <c r="E133" s="50"/>
@@ -13302,7 +13310,7 @@
       <c r="AE133" s="41"/>
       <c r="AF133" s="41"/>
       <c r="AG133" s="42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AH133" s="5"/>
       <c r="AI133" s="5"/>
